--- a/数据整理/stocks/A股/深证主板/002221-东华能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/002221-东华能源.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159945</t>
+          <t>159930</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发中证全指能源ETF</t>
+          <t>汇添富中证能源ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>99.39</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159930</t>
+          <t>159945</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证能源ETF</t>
+          <t>广发中证全指能源ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>99.49</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004549</t>
+          <t>710001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富安达消费主题灵活配置混合</t>
+          <t>富安达优势成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.45</t>
+          <t>9.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4567</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009789</t>
+          <t>320001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富安达科技创新混合</t>
+          <t>诺安平衡混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.13</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>73.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3378</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000423</t>
+          <t>010746</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源事件驱动混合A</t>
+          <t>富安达长三角区域主题混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>71.62</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2342</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001865</t>
+          <t>159930</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源事件驱动混合C</t>
+          <t>汇添富中证能源ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>71.62</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -706,26 +786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>320001</t>
+          <t>009789</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>诺安平衡混合</t>
+          <t>富安达科技创新混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>73.61</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -734,26 +824,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010746</t>
+          <t>008128</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富安达长三角区域主题混合</t>
+          <t>湘财长源股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.25</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.41</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -762,26 +862,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>159930</t>
+          <t>000423</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富中证能源ETF</t>
+          <t>前海开源事件驱动混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>99.40</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -790,26 +900,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>159945</t>
+          <t>004549</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发中证全指能源ETF</t>
+          <t>富安达消费主题灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>99.33</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -818,26 +938,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>710001</t>
+          <t>008129</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富安达优势成长混合</t>
+          <t>湘财长源股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -846,26 +976,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008128</t>
+          <t>159945</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>湘财长源股票A</t>
+          <t>广发中证全指能源ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008129</t>
+          <t>001865</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>湘财长源股票C</t>
+          <t>前海开源事件驱动混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002221-东华能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/002221-东华能源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3885</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2767</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002221-东华能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/002221-东华能源.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1486,4 +1487,552 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4243</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3748</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3297</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2200</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1316</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002221-东华能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/002221-东华能源.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2035,4 +2036,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002221-东华能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/002221-东华能源.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2044,7 +2045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2055,17 +2056,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2075,14 +2096,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.13</v>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3045</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2091,14 +2134,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.25</v>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2107,14 +2172,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.36</v>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>56.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2123,13 +2210,339 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>49.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>56.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>62.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002221-东华能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/002221-东华能源.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2441,7 +2442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2452,17 +2453,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2472,14 +2493,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.98</v>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2222</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2488,14 +2531,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>3.13</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="4">
@@ -2504,14 +2637,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>1.25</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="5">
@@ -2520,14 +2653,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="6">
@@ -2536,13 +2669,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002221-东华能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/002221-东华能源.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2574,7 +2575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2585,17 +2586,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2605,14 +2626,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.28</v>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2253</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2621,14 +2664,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.98</v>
       </c>
     </row>
     <row r="4">
@@ -2637,14 +2702,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.13</v>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2653,14 +2740,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>1.25</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="6">
@@ -2669,14 +2878,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="7">
@@ -2685,13 +2894,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.09</v>
       </c>
     </row>
